--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2126.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2126.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.270262471826505</v>
+        <v>0.9127689003944397</v>
       </c>
       <c r="B1">
-        <v>2.103432935128069</v>
+        <v>3.107428550720215</v>
       </c>
       <c r="C1">
-        <v>1.25879045290644</v>
+        <v>2.818970441818237</v>
       </c>
       <c r="D1">
-        <v>1.05281277875351</v>
+        <v>1.60148811340332</v>
       </c>
       <c r="E1">
-        <v>0.9865527685602892</v>
+        <v>1.230545878410339</v>
       </c>
     </row>
   </sheetData>
